--- a/makerclan/applicants/Applicants_Saurav.xlsx
+++ b/makerclan/applicants/Applicants_Saurav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -68,13 +68,22 @@
   </si>
   <si>
     <t>Gagan Parmar</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Mail Response</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +101,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,18 +131,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -428,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,9 +459,11 @@
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,8 +473,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -462,8 +490,12 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="4"/>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -474,7 +506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -485,7 +517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -496,7 +528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -507,7 +539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -518,7 +550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -529,7 +561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -539,8 +571,12 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="4"/>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -550,8 +586,11 @@
       <c r="C10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
